--- a/qualis.xlsx
+++ b/qualis.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleid\Documents\github\LAFEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Meu_Git\LAFEX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F8A178-D73D-435C-9664-770F47737CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1057AFE7-A563-4CA0-A4E7-B068E9E7D0AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4371" uniqueCount="2727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4371" uniqueCount="2728">
   <si>
     <t>ISSN</t>
   </si>
@@ -8204,6 +8204,9 @@
   </si>
   <si>
     <t>Não tem custo mas só aceita textos em Inglês, Catalão ou Espanhol</t>
+  </si>
+  <si>
+    <t>Revista em português sem taxa de publicação</t>
   </si>
 </sst>
 </file>
@@ -8604,8 +8607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D111" sqref="D111"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="69" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -8922,7 +8925,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>2725</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
